--- a/Project4309_A. M. Paterson(2014).xlsx
+++ b/Project4309_A. M. Paterson(2014).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A468E2A2-174B-4F33-B605-700A5E65A574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798C5F0B-D925-4343-9CEC-A6514EB893AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16245" yWindow="6825" windowWidth="15870" windowHeight="18585" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
+    <workbookView xWindow="16455" yWindow="780" windowWidth="15945" windowHeight="18375" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Project4309" sheetId="1" r:id="rId1"/>
@@ -342,55 +342,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>25399</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>782086</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3120BAEE-43D7-3501-059A-B626BD04D87D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10524066" y="364067"/>
-          <a:ext cx="10713487" cy="6663266"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,7 +664,7 @@
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1484,6 +1435,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>